--- a/config/initializers/ACCOUNTability.xlsx
+++ b/config/initializers/ACCOUNTability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>Feel free to modify this worksheet to your liking. The other worksheet, titled "data", will contain the expense reports coming in through SMS.</t>
   </si>
   <si>
-    <t>You are free to modify this worksheet and create new ones. But make sure to leave the "data" spreadsheet alone, unless you really know what you are doing.</t>
-  </si>
-  <si>
     <t>Timestamp</t>
   </si>
   <si>
@@ -44,6 +41,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Please modify this worksheet and create new ones. But make sure to leave the "data" worksheet alone, unless you really know what you are doing.</t>
   </si>
 </sst>
 </file>
@@ -51,9 +51,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="m/d;@"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ [$GHS]"/>
-    <numFmt numFmtId="170" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$GHS]"/>
+    <numFmt numFmtId="166" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -101,22 +101,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,7 +452,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -490,7 +492,7 @@
     </row>
     <row r="5" spans="1:20" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
@@ -523,19 +525,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
